--- a/src/main/resources/HiredCandidates.xlsx
+++ b/src/main/resources/HiredCandidates.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
